--- a/법규목록.xlsx
+++ b/법규목록.xlsx
@@ -1062,7 +1062,7 @@
     <t>외국환거래업무 취급세칙</t>
   </si>
   <si>
-    <t>외환대출 취급지침</t>
+    <t>외화대출 취급지침</t>
   </si>
   <si>
     <t>외환정보집중기관 운영절차</t>
@@ -1587,7 +1587,7 @@
     <t>정보통신망 이용촉진 및 정보보호 등에 관한 법률</t>
   </si>
   <si>
-    <t>정부보관금에 대한 법률</t>
+    <t>정부보관금에 관한 법률</t>
   </si>
   <si>
     <t>조세특례제한법</t>
@@ -3291,7 +3291,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="33" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -3309,7 +3309,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="33" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -9863,7 +9863,7 @@
     <row r="365" ht="16.5" customHeight="1">
       <c r="A365" s="14"/>
       <c r="B365" s="33" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C365" s="29"/>
       <c r="D365" s="25"/>
